--- a/genome_plot/situations/dummy_scores.xlsx
+++ b/genome_plot/situations/dummy_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/vol/work/Github/R-Projects/genome_plot/situations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B032FF-7339-E749-B23B-56E2DAEBFCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7D00B9-7E15-AF43-9F2B-7483A8B33540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="76820" yWindow="500" windowWidth="34140" windowHeight="19580" xr2:uid="{1D3DF8E2-979C-0B49-B4BD-08E7C095E8C5}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="326" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -473,10 +473,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -493,10 +493,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1060</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -533,10 +533,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
